--- a/Quality Control/Trials.xlsx
+++ b/Quality Control/Trials.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projects New\OP1092\Quality Control\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65104E85-7EE0-4F49-A6CF-0C54EC4325A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0539F1-0795-4806-A2CA-4D5316AD6BEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="89">
   <si>
     <t>Dataset</t>
   </si>
@@ -224,11 +224,6 @@
     <t>Visit Number</t>
   </si>
   <si>
-    <t>VALUE: For Part A SAD 5 mg, 10mg, 20mg, 40mg, 80mg--&gt; 
-10, 20, 30, 40, 50, 60, 70, 80, 170
-For Part A FEC  20 mg---&gt; 10, 20, 30, 40, 50, 60, 70, 80, 100, 110, 120, 130, 140, 150, 160, 170</t>
-  </si>
-  <si>
     <t>Sequential number uniquely assigned to the VISIT</t>
   </si>
   <si>
@@ -238,15 +233,6 @@
     <t>Visit Name</t>
   </si>
   <si>
-    <t>VALUE: For Part A SAD 5 mg, 10mg, 20mg, 40mg, 80mg--&gt; 
-SCREENING, P1D-1, P1D-2, P1D1, P1D2, P1D3, P1D4, P1D5, EOS
-For Part A FEC  20 mg---&gt;
-SCREENING,  P1D-1, P1D-2, P1D1, P1D2, P1D3, P1D4, P1D5, P2D-1, P2D-2, P2D1, P2D2, P2D3, P2D4, P2D5, EOS</t>
-  </si>
-  <si>
-    <t>rep_sv.SUBJEVENTNAME</t>
-  </si>
-  <si>
     <t>Assigned from Protocol</t>
   </si>
   <si>
@@ -256,56 +242,13 @@
     <t>Planned Study Day of Visit</t>
   </si>
   <si>
-    <t>VALUE: For Part A SAD 5 mg, 10mg, 20mg, 40mg, 80mg---&gt;
--21, -1, -2, 1, 2, 3, 4, 5, 10
-For Part A FEC  20 mg---&gt;-21, -1, -2, 1, 2, 3, 4, 5, 21, 22, 23, 24, 25, 26, 27, 32</t>
-  </si>
-  <si>
-    <t>VALUE: JP-5, JP-10, JP-20, JP-40, JP-80, P-5, P-10, P-20, P-40, P-80</t>
-  </si>
-  <si>
     <t>ARM</t>
   </si>
   <si>
-    <t>VALUE: JP-2266 5mg, JP-2266 10mg, JP-2266 20mg, JP-2266 40mg, JP-2266 80mg, Placebo 5mg, Placebo 10mg Placebo 20mg, Placebo 40mg, Placebo 80mg</t>
-  </si>
-  <si>
-    <t>VALUE: For VISIT=SCREENING---&gt;EPOCH=SCREENING,
-For VISIT=P1D-1, P1D-2, P2D-1, P2D-2---&gt;EPOCH=INCLUSION,
-For VISIT= P1D1, P1D2, P1D3, P1D4, P1D5, P2D1, P2D2, P2D3, P2D4, P2D5---&gt; EPOCH=TREATMENT,
-For VISIT=EOS---&gt;EPOCH=END OF STUDY</t>
-  </si>
-  <si>
     <t>TVSTRL</t>
   </si>
   <si>
     <t>Visit Start Rule</t>
-  </si>
-  <si>
-    <t>VALUE:
-For Part A SAD 5 mg, 10mg, 20mg, 40mg, 80mg---&gt;
-START OF SCREENING EPOCH
-START OF INCLUSION EPOCH
-START OF TREATMENT EPOCH 
-1 DAY AFTER START OF TREATMENT EPOCH
-2 DAYS AFTER START OF TREATMENT EPOCH
-3 DAYS AFTER START OF TREATMENT EPOCH
-4 DAYS AFTER START OF TREATMENT EPOCH
-5 DAYS AFTER START OF TREATMENT EPOCH
-For Part A FEC  20 mg---&gt;
-START OF SCREENING EPOCH 
-START OF INCLUSION OF PERIOD1  AND PERIOD2 EPOCH 
-START OF TREATMENT OF PERIOD1  AND PERIOD2  EPOCH 
-1 DAY AFTER START OF TREATMENT EPOCH
-2 DAYS AFTER START OF TREATMENT EPOCH
-3 DAYS AFTER START OF TREATMENT EPOCH
-4 DAYS AFTER START OF TREATMENT EPOCH
-5 DAYS AFTER START OF TREATMENT EPOCH
-23 DAYS AFTER START OF TREATMENT EPOCH 
-24 DAYS AFTER START OF TREATMENT EPOCH
-25 DAYS AFTER START OF TREATMENT EPOCH
-26 DAYS AFTER START OF TREATMENT EPOCH
-27 DAYS AFTER START OF TREATMENT EPOCH</t>
   </si>
   <si>
     <t>VALUE: P-JP5, P-P5, P-JP10, P-P10, P-JP20, P-P20, P-JP40, P-P40, P-JP80, P-P80</t>
@@ -357,6 +300,56 @@
 Dose of study drug, where drug is Placebo-JP2266 80mg, 
 Dose of study drug, where drug is Placebo-Placebo 80mg,
 Last Treatment visit"</t>
+  </si>
+  <si>
+    <t>VALUE: For 5 mg, 10mg, 40mg, 80mg--&gt; 
+SCREENING, P1 D-2, P1 D-1, P1 D1, P1 D2, P1 D3, P1 D4, P1 D5, EOS
+For  20 mg---&gt;
+SCREENING, P1 D-2, P1 D-1, P1 D1, P1 D2, P1 D3, P1 D4, P1 D5, P2 D-2, P2 D-1, P2 D1, P2 D2, P2 D3, P2 D4, P2 D5, EOS</t>
+  </si>
+  <si>
+    <t>VALUE: For 5 mg, 10mg, 40mg, 80mg--&gt; 
+10, 20, 30, 40, 50, 60, 70, 80, 160
+For 20 mg---&gt; 10, 20, 30, 40, 50, 60, 70, 80, 90, 100, 110, 120, 130, 140, 150, 160</t>
+  </si>
+  <si>
+    <t>VALUE: For 5 mg, 10mg, 40mg, 80mg---&gt;
+-21, -2, -1, 1, 2, 3, 4, 5, 10
+For 20 mg---&gt;-21, -2, -1, 1, 2, 3, 4, 5, 13, 14, 15, 16, 17, 18, 19, 24</t>
+  </si>
+  <si>
+    <t>VALUE: For VISIT in (SCREENING) ---&gt;EPOCH=SCREENING,
+For VISIT in (P1 D-2, P1 D-1, P2 D-2, P2 D-1---&gt;EPOCH=INCLUSION,
+For VISIT in (P1 D1, P1 D2, P1 D3, P1 D4, P1 D5, P2 D1, P2 D2, P2 D3, P2 D4, P2 D5) ---&gt; EPOCH=TREATMENT,
+For VISIT in (EOS)---&gt;EPOCH=END OF STUDY</t>
+  </si>
+  <si>
+    <t>VALUE:
+For 5 mg, 10mg, 40mg, 80mg---&gt;
+START OF SCREENING EPOCH
+START OF INCLUSION EPOCH
+START OF TREATMENT EPOCH 
+1 DAY AFTER START OF TREATMENT EPOCH
+2 DAYS AFTER START OF TREATMENT EPOCH
+3 DAYS AFTER START OF TREATMENT EPOCH
+4 DAYS AFTER START OF TREATMENT EPOCH
+5 DAYS AFTER START OF TREATMENT EPOCH
+For 20 mg---&gt;
+START OF SCREENING EPOCH 
+START OF PERIOD 1 INCLUSION EPOCH
+START OF PERIOD 1 TREATMENT EPOCH 
+1 DAY AFTER START OF PERIOD 1 TREATMENT EPOCH
+2 DAYS AFTER START OF PERIOD 1 TREATMENT EPOCH
+3 DAYS AFTER START OF PERIOD 1 TREATMENT EPOCH
+4 DAYS AFTER START OF PERIOD 1 TREATMENT EPOCH
+5 DAYS AFTER START OF PERIOD 1 TREATMENT EPOCH
+START OF PERIOD 2 INCLUSION EPOCH
+START OF PERIOD 2 TREATMENT EPOCH 
+1 DAY AFTER START OF PERIOD 2 TREATMENT EPOCH
+2 DAYS AFTER START OF PERIOD 2 TREATMENT EPOCH
+3 DAYS AFTER START OF PERIOD 2 TREATMENT EPOCH
+4 DAYS AFTER START OF PERIOD 2 TREATMENT EPOCH
+5 DAYS AFTER START OF PERIOD 2 TREATMENT EPOCH</t>
   </si>
 </sst>
 </file>
@@ -500,7 +493,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -600,9 +593,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -620,6 +610,12 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1000,7 +996,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="J4" sqref="J4:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1082,8 +1078,8 @@
       <c r="I2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="43" t="s">
-        <v>84</v>
+      <c r="J2" s="42" t="s">
+        <v>76</v>
       </c>
       <c r="K2" s="10" t="s">
         <v>19</v>
@@ -1148,8 +1144,8 @@
       <c r="I4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="39" t="s">
-        <v>82</v>
+      <c r="J4" s="38" t="s">
+        <v>74</v>
       </c>
       <c r="K4" s="7"/>
       <c r="L4" s="6"/>
@@ -1180,8 +1176,8 @@
       <c r="I5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="39" t="s">
-        <v>83</v>
+      <c r="J5" s="38" t="s">
+        <v>75</v>
       </c>
       <c r="K5" s="7"/>
       <c r="L5" s="16"/>
@@ -1212,8 +1208,8 @@
       <c r="I6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="42" t="s">
-        <v>88</v>
+      <c r="J6" s="41" t="s">
+        <v>80</v>
       </c>
       <c r="K6" s="7"/>
       <c r="L6" s="17"/>
@@ -1244,8 +1240,8 @@
       <c r="I7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="40" t="s">
-        <v>89</v>
+      <c r="J7" s="39" t="s">
+        <v>81</v>
       </c>
       <c r="K7" s="7"/>
       <c r="L7" s="17"/>
@@ -1276,8 +1272,8 @@
       <c r="I8" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="J8" s="41" t="s">
-        <v>87</v>
+      <c r="J8" s="40" t="s">
+        <v>79</v>
       </c>
       <c r="K8" s="7"/>
       <c r="L8" s="17"/>
@@ -1308,8 +1304,8 @@
       <c r="I9" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="J9" s="41" t="s">
-        <v>85</v>
+      <c r="J9" s="40" t="s">
+        <v>77</v>
       </c>
       <c r="K9" s="7"/>
       <c r="L9" s="17"/>
@@ -1372,8 +1368,8 @@
       <c r="I11" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="J11" s="41" t="s">
-        <v>86</v>
+      <c r="J11" s="40" t="s">
+        <v>78</v>
       </c>
       <c r="K11" s="7"/>
       <c r="L11" s="17"/>
@@ -1397,7 +1393,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1480,8 +1476,8 @@
       <c r="I2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="43" t="s">
-        <v>84</v>
+      <c r="J2" s="42" t="s">
+        <v>76</v>
       </c>
       <c r="K2" s="22" t="s">
         <v>19</v>
@@ -1546,8 +1542,8 @@
       <c r="I4" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="40" t="s">
-        <v>89</v>
+      <c r="J4" s="39" t="s">
+        <v>81</v>
       </c>
       <c r="K4" s="20"/>
       <c r="L4" s="20"/>
@@ -1578,8 +1574,8 @@
       <c r="I5" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="41" t="s">
-        <v>87</v>
+      <c r="J5" s="40" t="s">
+        <v>79</v>
       </c>
       <c r="K5" s="20"/>
       <c r="L5" s="20"/>
@@ -1610,8 +1606,8 @@
       <c r="I6" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="31" t="s">
-        <v>91</v>
+      <c r="J6" s="44" t="s">
+        <v>83</v>
       </c>
       <c r="K6" s="31"/>
       <c r="L6" s="20"/>
@@ -1676,8 +1672,8 @@
       <c r="I8" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="J8" s="44" t="s">
-        <v>90</v>
+      <c r="J8" s="43" t="s">
+        <v>82</v>
       </c>
       <c r="K8" s="20"/>
       <c r="L8" s="20"/>
@@ -1697,8 +1693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2CA457C-69DA-4E6C-95E6-AE704E09F230}">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1775,8 +1771,8 @@
       <c r="I2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="43" t="s">
-        <v>84</v>
+      <c r="J2" s="42" t="s">
+        <v>76</v>
       </c>
       <c r="K2" s="22" t="s">
         <v>19</v>
@@ -1841,23 +1837,23 @@
       <c r="I4" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="37" t="s">
-        <v>65</v>
+      <c r="J4" s="45" t="s">
+        <v>85</v>
       </c>
       <c r="K4" s="12"/>
       <c r="L4" s="12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="64.5" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>60</v>
       </c>
       <c r="B5" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="27" t="s">
         <v>67</v>
-      </c>
-      <c r="C5" s="27" t="s">
-        <v>68</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>15</v>
@@ -1873,14 +1869,12 @@
       <c r="I5" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="J5" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="K5" s="27" t="s">
-        <v>70</v>
-      </c>
+      <c r="J5" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="K5" s="40"/>
       <c r="L5" s="27" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="51.75" x14ac:dyDescent="0.25">
@@ -1888,10 +1882,10 @@
         <v>60</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>32</v>
@@ -1909,8 +1903,8 @@
       <c r="I6" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="J6" s="27" t="s">
-        <v>74</v>
+      <c r="J6" s="40" t="s">
+        <v>86</v>
       </c>
       <c r="K6" s="27"/>
       <c r="L6" s="27"/>
@@ -1940,17 +1934,17 @@
         <v>43</v>
       </c>
       <c r="J7" s="38" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K7" s="12"/>
-      <c r="L7" s="38"/>
-    </row>
-    <row r="8" spans="1:12" ht="39" x14ac:dyDescent="0.25">
+      <c r="L7" s="37"/>
+    </row>
+    <row r="8" spans="1:12" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>60</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C8" s="27" t="s">
         <v>28</v>
@@ -1970,12 +1964,12 @@
         <v>39</v>
       </c>
       <c r="J8" s="38" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K8" s="12"/>
-      <c r="L8" s="38"/>
-    </row>
-    <row r="9" spans="1:12" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="L8" s="37"/>
+    </row>
+    <row r="9" spans="1:12" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
         <v>60</v>
       </c>
@@ -2001,21 +1995,21 @@
       <c r="I9" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="27" t="s">
-        <v>78</v>
+      <c r="J9" s="40" t="s">
+        <v>87</v>
       </c>
       <c r="K9" s="27"/>
       <c r="L9" s="27"/>
     </row>
-    <row r="10" spans="1:12" ht="319.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="345" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>60</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>15</v>
@@ -2031,8 +2025,8 @@
       <c r="I10" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="J10" s="27" t="s">
-        <v>81</v>
+      <c r="J10" s="40" t="s">
+        <v>88</v>
       </c>
       <c r="K10" s="27"/>
       <c r="L10" s="19"/>

--- a/Quality Control/Trials.xlsx
+++ b/Quality Control/Trials.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projects New\OP1092\Quality Control\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0539F1-0795-4806-A2CA-4D5316AD6BEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2AACC3C-211F-4377-91EE-613788636715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TA" sheetId="4" r:id="rId1"/>
@@ -333,7 +333,7 @@
 2 DAYS AFTER START OF TREATMENT EPOCH
 3 DAYS AFTER START OF TREATMENT EPOCH
 4 DAYS AFTER START OF TREATMENT EPOCH
-5 DAYS AFTER START OF TREATMENT EPOCH
+9 DAYS AFTER START OF TREATMENT EPOCH
 For 20 mg---&gt;
 START OF SCREENING EPOCH 
 START OF PERIOD 1 INCLUSION EPOCH
@@ -342,14 +342,14 @@
 2 DAYS AFTER START OF PERIOD 1 TREATMENT EPOCH
 3 DAYS AFTER START OF PERIOD 1 TREATMENT EPOCH
 4 DAYS AFTER START OF PERIOD 1 TREATMENT EPOCH
-5 DAYS AFTER START OF PERIOD 1 TREATMENT EPOCH
+10 DAYS AFTER START OF PERIOD 1 TREATMENT EPOCH
 START OF PERIOD 2 INCLUSION EPOCH
 START OF PERIOD 2 TREATMENT EPOCH 
 1 DAY AFTER START OF PERIOD 2 TREATMENT EPOCH
 2 DAYS AFTER START OF PERIOD 2 TREATMENT EPOCH
 3 DAYS AFTER START OF PERIOD 2 TREATMENT EPOCH
 4 DAYS AFTER START OF PERIOD 2 TREATMENT EPOCH
-5 DAYS AFTER START OF PERIOD 2 TREATMENT EPOCH</t>
+9 DAYS AFTER START OF PERIOD 2 TREATMENT EPOCH</t>
   </si>
 </sst>
 </file>
@@ -1392,7 +1392,7 @@
   </sheetPr>
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
@@ -1693,8 +1693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2CA457C-69DA-4E6C-95E6-AE704E09F230}">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Quality Control/Trials.xlsx
+++ b/Quality Control/Trials.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projects New\OP1092\Quality Control\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2AACC3C-211F-4377-91EE-613788636715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC7D80B-4095-448B-A863-9E0ABA226801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1694,7 +1694,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Quality Control/Trials.xlsx
+++ b/Quality Control/Trials.xlsx
@@ -5,24 +5,26 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projects New\OP1092\Quality Control\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\OP1092\OP1092\Quality Control\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC7D80B-4095-448B-A863-9E0ABA226801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1923B4A9-DFE5-4F6A-901B-004EBDDBA7B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9463" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TA" sheetId="4" r:id="rId1"/>
-    <sheet name="TE" sheetId="5" r:id="rId2"/>
-    <sheet name="TV" sheetId="6" r:id="rId3"/>
+    <sheet name="TA_NET" sheetId="7" r:id="rId2"/>
+    <sheet name="TE" sheetId="5" r:id="rId3"/>
+    <sheet name="TE_NET" sheetId="8" r:id="rId4"/>
+    <sheet name="TV" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="100">
   <si>
     <t>Dataset</t>
   </si>
@@ -350,6 +352,61 @@
 3 DAYS AFTER START OF PERIOD 2 TREATMENT EPOCH
 4 DAYS AFTER START OF PERIOD 2 TREATMENT EPOCH
 9 DAYS AFTER START OF PERIOD 2 TREATMENT EPOCH</t>
+  </si>
+  <si>
+    <t>VALUE: JP5, JP10,JP20,JP40,JP80,PLA5,PLA10,PLA20,PLA40,PLA80</t>
+  </si>
+  <si>
+    <t>VALUE: JP2266 5mg,JP2266 10 mg,JP2266 20 mg,JP2266 40 mg,JP2266 80 mg,Placebo 5mg,Placebo 10mg,Placebo 20 mg,Placebo 40 mg,Placebo 80mg</t>
+  </si>
+  <si>
+    <t>VALUE: SCRN, INCLUSION, TRTFAST,FUP,WASHOUT,TRTFED,</t>
+  </si>
+  <si>
+    <t>VALUE: SCREEN,INCLUSION,TREATMENTFASTING,FOLLOW-UP,WASHOUT,TREATMENTFED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALUE: SCREENING, INCLUSION, TREATMENT, FOLLOW-UP,WASHOUT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Day-1 assigned Placebo
+Randomized to JP2266 5 mg,    
+Randomized to JP2266 10 mg,
+Randomized to Placebo 2266 20 mg at FASTING,
+Randomized to Placebo 2266 20 mg at FED,
+Randomized to JP2266 40 mg,
+Randomized to JP2266 80 mg,
+Randomized to Placebo 5 mg
+Randomized to JP2266 10 mg,
+Randomized to Placebo 266 20 mg at FASTING
+Randomized to Food Effect at FED,                                                                                                                                                                                                                                                                                                           Randomized to JP2266 40 mg
+Randomized to JP2266 80 mg</t>
+  </si>
+  <si>
+    <t>VALUE: SCRN,INCLUSION,TRTFAST,WASHOUT,TRTFED,FUP</t>
+  </si>
+  <si>
+    <t>VALUE: SCREEN,INCLUSION,TREATMENTFASTING,WASHOUT,TREATMENTFED,FOLLOW-UP</t>
+  </si>
+  <si>
+    <t>"VALUE:Signed Inform Consent Form
+Day -1
+Start of Treatment atFASTING
+End treatment at FASTING
+Start of Treatment at FED
+End of Fasting/Fed Treatment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"VALUE: Randomized Placebo/Treatment at FASTING
+Day -1 
+End of Treatment at FASTING
+End of  Treatment at FED
+End of Study
+</t>
+  </si>
+  <si>
+    <t>IF TESTRL=End treatment at FASTING THEN TEDUR=P14D</t>
   </si>
 </sst>
 </file>
@@ -420,7 +477,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -436,6 +493,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -493,7 +556,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -617,6 +680,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -631,7 +697,25 @@
     <cellStyle name="Normal_KR-PH-R668AD1026-DM-Specification-wave3" xfId="1" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
     <cellStyle name="Normal_Trial Design_Spec" xfId="3" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -995,26 +1079,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4:J5"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.3828125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.15234375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.69140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.3828125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.3046875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="69" customWidth="1"/>
-    <col min="11" max="11" width="22.28515625" customWidth="1"/>
-    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.3046875" customWidth="1"/>
+    <col min="12" max="12" width="13.3046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="25.75" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1052,7 +1136,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
@@ -1086,7 +1170,7 @@
       </c>
       <c r="L2" s="6"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
         <v>12</v>
       </c>
@@ -1118,7 +1202,7 @@
       <c r="K3" s="7"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
         <v>12</v>
       </c>
@@ -1150,7 +1234,7 @@
       <c r="K4" s="7"/>
       <c r="L4" s="6"/>
     </row>
-    <row r="5" spans="1:12" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="38.15" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
         <v>12</v>
       </c>
@@ -1182,7 +1266,7 @@
       <c r="K5" s="7"/>
       <c r="L5" s="16"/>
     </row>
-    <row r="6" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="25.75" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
         <v>12</v>
       </c>
@@ -1214,7 +1298,7 @@
       <c r="K6" s="7"/>
       <c r="L6" s="17"/>
     </row>
-    <row r="7" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="25.75" x14ac:dyDescent="0.4">
       <c r="A7" s="6" t="s">
         <v>12</v>
       </c>
@@ -1246,7 +1330,7 @@
       <c r="K7" s="7"/>
       <c r="L7" s="17"/>
     </row>
-    <row r="8" spans="1:12" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="63" x14ac:dyDescent="0.4">
       <c r="A8" s="6" t="s">
         <v>12</v>
       </c>
@@ -1278,7 +1362,7 @@
       <c r="K8" s="7"/>
       <c r="L8" s="17"/>
     </row>
-    <row r="9" spans="1:12" ht="153.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="6" t="s">
         <v>12</v>
       </c>
@@ -1310,7 +1394,7 @@
       <c r="K9" s="7"/>
       <c r="L9" s="17"/>
     </row>
-    <row r="10" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="6" t="s">
         <v>12</v>
       </c>
@@ -1340,7 +1424,7 @@
       <c r="K10" s="7"/>
       <c r="L10" s="17"/>
     </row>
-    <row r="11" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="6" t="s">
         <v>12</v>
       </c>
@@ -1373,6 +1457,1345 @@
       </c>
       <c r="K11" s="7"/>
       <c r="L11" s="17"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B1">
+    <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0B2E8AE-2169-4207-9514-C177A4CE5257}">
+  <dimension ref="A1:L11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="18.61328125" customWidth="1"/>
+    <col min="3" max="3" width="18.765625" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="10" max="10" width="57.07421875" customWidth="1"/>
+    <col min="11" max="11" width="15.15234375" customWidth="1"/>
+    <col min="12" max="12" width="18.3828125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="50.6" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="63" x14ac:dyDescent="0.4">
+      <c r="A2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="8">
+        <v>26</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="6"/>
+    </row>
+    <row r="3" spans="1:12" ht="38.15" x14ac:dyDescent="0.4">
+      <c r="A3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="8">
+        <v>2</v>
+      </c>
+      <c r="F3" s="11"/>
+      <c r="G3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="7"/>
+      <c r="L3" s="6"/>
+    </row>
+    <row r="4" spans="1:12" ht="38.15" x14ac:dyDescent="0.4">
+      <c r="A4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="8">
+        <v>8</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="K4" s="7"/>
+      <c r="L4" s="6"/>
+    </row>
+    <row r="5" spans="1:12" ht="38.15" x14ac:dyDescent="0.4">
+      <c r="A5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="13">
+        <v>15</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="G5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="K5" s="7"/>
+      <c r="L5" s="16"/>
+    </row>
+    <row r="6" spans="1:12" ht="50.6" x14ac:dyDescent="0.4">
+      <c r="A6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="17">
+        <v>8</v>
+      </c>
+      <c r="F6" s="17"/>
+      <c r="G6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="K6" s="7"/>
+      <c r="L6" s="17"/>
+    </row>
+    <row r="7" spans="1:12" ht="25.75" x14ac:dyDescent="0.4">
+      <c r="A7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="17">
+        <v>8</v>
+      </c>
+      <c r="F7" s="17"/>
+      <c r="G7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="K7" s="7"/>
+      <c r="L7" s="17"/>
+    </row>
+    <row r="8" spans="1:12" ht="25.75" x14ac:dyDescent="0.4">
+      <c r="A8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="13">
+        <v>15</v>
+      </c>
+      <c r="F8" s="17"/>
+      <c r="G8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="K8" s="7"/>
+      <c r="L8" s="17"/>
+    </row>
+    <row r="9" spans="1:12" ht="174.9" x14ac:dyDescent="0.4">
+      <c r="A9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="17">
+        <v>29</v>
+      </c>
+      <c r="F9" s="17"/>
+      <c r="G9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="K9" s="7"/>
+      <c r="L9" s="17"/>
+    </row>
+    <row r="10" spans="1:12" ht="25.75" x14ac:dyDescent="0.4">
+      <c r="A10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="17">
+        <v>1</v>
+      </c>
+      <c r="F10" s="17"/>
+      <c r="G10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="J10" s="15"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="17"/>
+    </row>
+    <row r="11" spans="1:12" ht="25.75" x14ac:dyDescent="0.4">
+      <c r="A11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="17">
+        <v>12</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="K11" s="7"/>
+      <c r="L11" s="17"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B1">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D78D04DA-69C4-430B-9639-8EACBF231B1A}">
+  <sheetPr>
+    <tabColor theme="0"/>
+  </sheetPr>
+  <dimension ref="A1:L8"/>
+  <sheetViews>
+    <sheetView topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="J6" sqref="A1:L8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="8.3828125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.3046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.69140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.3828125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.3828125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.15234375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.3046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.3828125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.3046875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="63.15234375" customWidth="1"/>
+    <col min="11" max="11" width="22.3828125" customWidth="1"/>
+    <col min="12" max="12" width="19.3046875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="25.75" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="21">
+        <v>26</v>
+      </c>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="K2" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="20"/>
+    </row>
+    <row r="3" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="23">
+        <v>2</v>
+      </c>
+      <c r="F3" s="24"/>
+      <c r="G3" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+    </row>
+    <row r="4" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="25">
+        <v>8</v>
+      </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+    </row>
+    <row r="5" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="28">
+        <v>15</v>
+      </c>
+      <c r="F5" s="29"/>
+      <c r="G5" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+    </row>
+    <row r="6" spans="1:12" ht="162.44999999999999" x14ac:dyDescent="0.4">
+      <c r="A6" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="30">
+        <v>49</v>
+      </c>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="K6" s="31"/>
+      <c r="L6" s="20"/>
+    </row>
+    <row r="7" spans="1:12" ht="50.6" x14ac:dyDescent="0.4">
+      <c r="A7" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="30">
+        <v>40</v>
+      </c>
+      <c r="F7" s="32"/>
+      <c r="G7" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+    </row>
+    <row r="8" spans="1:12" ht="25.75" x14ac:dyDescent="0.4">
+      <c r="A8" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="30">
+        <v>4</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B1">
+    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B208BDFB-5FE8-489D-AAB4-022DD54574C5}">
+  <dimension ref="A1:L8"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="3" max="3" width="15.23046875" customWidth="1"/>
+    <col min="6" max="6" width="17.3046875" customWidth="1"/>
+    <col min="10" max="10" width="57.07421875" customWidth="1"/>
+    <col min="11" max="11" width="26.3046875" customWidth="1"/>
+    <col min="12" max="12" width="24.765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="50.6" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="63" x14ac:dyDescent="0.4">
+      <c r="A2" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="21">
+        <v>26</v>
+      </c>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="K2" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="20"/>
+    </row>
+    <row r="3" spans="1:12" ht="38.15" x14ac:dyDescent="0.4">
+      <c r="A3" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="23">
+        <v>2</v>
+      </c>
+      <c r="F3" s="24"/>
+      <c r="G3" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+    </row>
+    <row r="4" spans="1:12" ht="38.15" x14ac:dyDescent="0.4">
+      <c r="A4" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="25">
+        <v>8</v>
+      </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+    </row>
+    <row r="5" spans="1:12" ht="38.15" x14ac:dyDescent="0.4">
+      <c r="A5" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="28">
+        <v>15</v>
+      </c>
+      <c r="F5" s="29"/>
+      <c r="G5" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+    </row>
+    <row r="6" spans="1:12" ht="75.45" x14ac:dyDescent="0.4">
+      <c r="A6" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="30">
+        <v>49</v>
+      </c>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="K6" s="31"/>
+      <c r="L6" s="20"/>
+    </row>
+    <row r="7" spans="1:12" ht="75.45" x14ac:dyDescent="0.4">
+      <c r="A7" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="30">
+        <v>40</v>
+      </c>
+      <c r="F7" s="32"/>
+      <c r="G7" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+    </row>
+    <row r="8" spans="1:12" ht="25.75" x14ac:dyDescent="0.4">
+      <c r="A8" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="30">
+        <v>4</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B1">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2CA457C-69DA-4E6C-95E6-AE704E09F230}">
+  <dimension ref="A1:L10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="11.53515625" customWidth="1"/>
+    <col min="3" max="3" width="21.84375" customWidth="1"/>
+    <col min="6" max="6" width="15.84375" customWidth="1"/>
+    <col min="7" max="7" width="11.3046875" customWidth="1"/>
+    <col min="8" max="8" width="10.69140625" customWidth="1"/>
+    <col min="10" max="10" width="57.3046875" customWidth="1"/>
+    <col min="11" max="11" width="23.3046875" customWidth="1"/>
+    <col min="12" max="12" width="33.84375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="25.75" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A2" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="21"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="K2" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="19"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A3" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="35">
+        <v>2</v>
+      </c>
+      <c r="F3" s="36"/>
+      <c r="G3" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="K3" s="27"/>
+      <c r="L3" s="19"/>
+    </row>
+    <row r="4" spans="1:12" ht="50.6" x14ac:dyDescent="0.4">
+      <c r="A4" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="35">
+        <v>8</v>
+      </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="75.45" x14ac:dyDescent="0.4">
+      <c r="A5" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="30"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="K5" s="40"/>
+      <c r="L5" s="27" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="38.15" x14ac:dyDescent="0.4">
+      <c r="A6" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="30">
+        <v>8</v>
+      </c>
+      <c r="F6" s="27"/>
+      <c r="G6" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+    </row>
+    <row r="7" spans="1:12" ht="25.75" x14ac:dyDescent="0.4">
+      <c r="A7" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="30"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="K7" s="12"/>
+      <c r="L7" s="37"/>
+    </row>
+    <row r="8" spans="1:12" ht="50.6" x14ac:dyDescent="0.4">
+      <c r="A8" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="30"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="K8" s="12"/>
+      <c r="L8" s="37"/>
+    </row>
+    <row r="9" spans="1:12" ht="63" x14ac:dyDescent="0.4">
+      <c r="A9" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+    </row>
+    <row r="10" spans="1:12" ht="336.45" x14ac:dyDescent="0.4">
+      <c r="A10" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="30"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="K10" s="27"/>
+      <c r="L10" s="19"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1">
@@ -1383,661 +2806,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D78D04DA-69C4-430B-9639-8EACBF231B1A}">
-  <sheetPr>
-    <tabColor theme="0"/>
-  </sheetPr>
-  <dimension ref="A1:L8"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="63.140625" customWidth="1"/>
-    <col min="11" max="11" width="22.42578125" customWidth="1"/>
-    <col min="12" max="12" width="19.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="21">
-        <v>26</v>
-      </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="K2" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="20"/>
-    </row>
-    <row r="3" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="23">
-        <v>2</v>
-      </c>
-      <c r="F3" s="24"/>
-      <c r="G3" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-    </row>
-    <row r="4" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="25">
-        <v>8</v>
-      </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-    </row>
-    <row r="5" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="28">
-        <v>15</v>
-      </c>
-      <c r="F5" s="29"/>
-      <c r="G5" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-    </row>
-    <row r="6" spans="1:12" ht="166.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="30">
-        <v>49</v>
-      </c>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" s="44" t="s">
-        <v>83</v>
-      </c>
-      <c r="K6" s="31"/>
-      <c r="L6" s="20"/>
-    </row>
-    <row r="7" spans="1:12" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="30">
-        <v>40</v>
-      </c>
-      <c r="F7" s="32"/>
-      <c r="G7" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="I7" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="J7" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-    </row>
-    <row r="8" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="30">
-        <v>4</v>
-      </c>
-      <c r="F8" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="G8" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="I8" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="J8" s="43" t="s">
-        <v>82</v>
-      </c>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
-      <formula>"TBD"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2CA457C-69DA-4E6C-95E6-AE704E09F230}">
-  <dimension ref="A1:L10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" customWidth="1"/>
-    <col min="10" max="10" width="57.28515625" customWidth="1"/>
-    <col min="11" max="11" width="23.28515625" customWidth="1"/>
-    <col min="12" max="12" width="33.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="21"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="K2" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="19"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="35">
-        <v>2</v>
-      </c>
-      <c r="F3" s="36"/>
-      <c r="G3" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="K3" s="27"/>
-      <c r="L3" s="19"/>
-    </row>
-    <row r="4" spans="1:12" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="35">
-        <v>8</v>
-      </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="45" t="s">
-        <v>85</v>
-      </c>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="77.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="B5" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="30"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="J5" s="40" t="s">
-        <v>84</v>
-      </c>
-      <c r="K5" s="40"/>
-      <c r="L5" s="27" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="30">
-        <v>8</v>
-      </c>
-      <c r="F6" s="27"/>
-      <c r="G6" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="J6" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-    </row>
-    <row r="7" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="30"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="J7" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="K7" s="12"/>
-      <c r="L7" s="37"/>
-    </row>
-    <row r="8" spans="1:12" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="B8" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="30"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="I8" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="J8" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="K8" s="12"/>
-      <c r="L8" s="37"/>
-    </row>
-    <row r="9" spans="1:12" ht="77.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="I9" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-    </row>
-    <row r="10" spans="1:12" ht="345" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="30"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="I10" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="J10" s="40" t="s">
-        <v>88</v>
-      </c>
-      <c r="K10" s="27"/>
-      <c r="L10" s="19"/>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
-      <formula>"TBD"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>